--- a/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7A06A-071F-C144-AA21-8519AE714186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF231E-8A1A-AD4C-ACB5-90C2D67EEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17440" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <t>Father ID</t>
   </si>
   <si>
-    <t>Clinical Notes</t>
-  </si>
-  <si>
     <t>Ancestry</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Termination of Pregnancy</t>
+  </si>
+  <si>
+    <t>Clinic Notes</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -530,16 +530,16 @@
   <sheetData>
     <row r="1" spans="1:29" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -548,94 +548,91 @@
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{58F359FB-FB21-2A4C-8936-27ED47808892}">
       <formula1>"Male,Female,Unknown"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 R2:R1048576 V2:V1048576 X2:X1048576 Y2:Y1048576 Z2:Z1048576 AA2:AA1048576 AB2:AB1048576" xr:uid="{D8ACEC15-088B-F740-A87D-9346AC10D7CC}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 N2:N1048576" xr:uid="{3638C97B-3E51-344D-8509-543F2CED0959}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 N2:N1048576 U2:U1048576" xr:uid="{3638C97B-3E51-344D-8509-543F2CED0959}">
       <formula1>"year,month,week,day"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{E2A9F5CB-E149-254C-B70F-2E9FE84E3F13}">
-      <formula1>"definite,probable,possible"</formula1>
+      <formula1>"definite,probable,possible,patient reported"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{E521920C-48C8-9C4D-A26B-400DBE53E3FF}">
       <formula1>"alive and well,alive,deceased,unknown"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{7D2AC784-8127-8640-8724-60370F4C8434}">
-      <formula1>"year,month,week,day"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF231E-8A1A-AD4C-ACB5-90C2D67EEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75218A4E-B2B1-564F-9EE3-BC556EDA7D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17440" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
@@ -496,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_dropdowns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75218A4E-B2B1-564F-9EE3-BC556EDA7D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F69A82-5D70-D84C-B711-DCFF25BC6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17440" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Mother ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Clinic Notes</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
   </si>
 </sst>
 </file>
@@ -494,9 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -512,21 +517,21 @@
     <col min="11" max="11" width="25.42578125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="25.42578125" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="20" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="25.42578125" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -570,48 +575,51 @@
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -620,16 +628,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{58F359FB-FB21-2A4C-8936-27ED47808892}">
       <formula1>"Male,Female,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 R2:R1048576 V2:V1048576 X2:X1048576 Y2:Y1048576 Z2:Z1048576 AA2:AA1048576 AB2:AB1048576" xr:uid="{D8ACEC15-088B-F740-A87D-9346AC10D7CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 S2:S1048576 W2:W1048576 Y2:Y1048576 Z2:Z1048576 AA2:AA1048576 AB2:AB1048576 AC2:AC1048576" xr:uid="{D8ACEC15-088B-F740-A87D-9346AC10D7CC}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 N2:N1048576 U2:U1048576" xr:uid="{3638C97B-3E51-344D-8509-543F2CED0959}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 V2:V1048576 N2:N1048576" xr:uid="{3638C97B-3E51-344D-8509-543F2CED0959}">
       <formula1>"year,month,week,day"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{E2A9F5CB-E149-254C-B70F-2E9FE84E3F13}">
       <formula1>"definite,probable,possible,patient reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{E521920C-48C8-9C4D-A26B-400DBE53E3FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{E521920C-48C8-9C4D-A26B-400DBE53E3FF}">
       <formula1>"alive and well,alive,deceased,unknown"</formula1>
     </dataValidation>
   </dataValidations>
